--- a/PCB/Version 1.0/Waveform Generator/Files for manufacture/assembly/BOM.xlsx
+++ b/PCB/Version 1.0/Waveform Generator/Files for manufacture/assembly/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanodyn - Spare\OneDrive - Nanodyn\Desktop\GIT repository\Waveform-generator\PCB\Version 1.0\Waveform Generator\Files for manufacture\assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nanodyn-my.sharepoint.com/personal/nicholas_nanodyn_co_za/Documents/Desktop/GIT repository/Waveform-generator/PCB/Version 1.0/Waveform Generator/Files for manufacture/assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B12B0-A77D-4036-AC94-439C77A94EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
